--- a/Experiments/Measurements/Two Banners Side by Side/Straight Path/Antenna_4/Transformed_Coordinates.xlsx
+++ b/Experiments/Measurements/Two Banners Side by Side/Straight Path/Antenna_4/Transformed_Coordinates.xlsx
@@ -1518,7 +1518,7 @@
         <v>136.5423802798518</v>
       </c>
       <c r="H36" t="n">
-        <v>107.6554840930131</v>
+        <v>107.655484093013</v>
       </c>
     </row>
     <row r="37">
@@ -2025,7 +2025,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>4.374497662227861</v>
+        <v>4.374497662227668</v>
       </c>
       <c r="H53" t="n">
         <v>179.1416346445829</v>
@@ -2055,10 +2055,10 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>215.6230333592219</v>
+        <v>215.6230333592223</v>
       </c>
       <c r="H54" t="n">
-        <v>179.4669705003205</v>
+        <v>179.4669705003206</v>
       </c>
     </row>
     <row r="55">
@@ -2085,10 +2085,10 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>-104.5127077524784</v>
+        <v>-104.5127077524782</v>
       </c>
       <c r="H55" t="n">
-        <v>180.2796099256067</v>
+        <v>180.2796099256068</v>
       </c>
     </row>
     <row r="56">
@@ -2201,7 +2201,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>94.41634084608677</v>
+        <v>94.41634084608657</v>
       </c>
       <c r="H59" t="n">
         <v>135.6996345436598</v>
@@ -2231,10 +2231,10 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>7.882510215961538</v>
+        <v>7.882510215961927</v>
       </c>
       <c r="H60" t="n">
-        <v>136.1676282862141</v>
+        <v>136.1676282862143</v>
       </c>
     </row>
     <row r="61">
@@ -2261,10 +2261,10 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>-8.335493112099321</v>
+        <v>-8.335493112099128</v>
       </c>
       <c r="H61" t="n">
-        <v>136.5333292959007</v>
+        <v>136.5333292959008</v>
       </c>
     </row>
     <row r="62">
@@ -2291,10 +2291,10 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>157.1945102693251</v>
+        <v>157.1945102693253</v>
       </c>
       <c r="H62" t="n">
-        <v>117.1129172875134</v>
+        <v>117.1129172875135</v>
       </c>
     </row>
     <row r="63">
@@ -2381,10 +2381,10 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>115.8218850608581</v>
+        <v>115.8218850608579</v>
       </c>
       <c r="H65" t="n">
-        <v>98.83796569384651</v>
+        <v>98.83796569384641</v>
       </c>
     </row>
     <row r="66">
@@ -2411,10 +2411,10 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>195.9083191028513</v>
+        <v>195.9083191028516</v>
       </c>
       <c r="H66" t="n">
-        <v>99.04986560038711</v>
+        <v>99.04986560038729</v>
       </c>
     </row>
     <row r="67">
@@ -2441,10 +2441,10 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>231.7756665517468</v>
+        <v>231.775666551747</v>
       </c>
       <c r="H67" t="n">
-        <v>100.2629983366191</v>
+        <v>100.2629983366192</v>
       </c>
     </row>
     <row r="68">
@@ -2471,10 +2471,10 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>108.6796351445904</v>
+        <v>108.6796351445906</v>
       </c>
       <c r="H68" t="n">
-        <v>86.54298349333041</v>
+        <v>86.54298349333051</v>
       </c>
     </row>
     <row r="69">
@@ -2561,10 +2561,10 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>154.0343663950104</v>
+        <v>154.0343663950102</v>
       </c>
       <c r="H71" t="n">
-        <v>78.00056947718525</v>
+        <v>78.00056947718512</v>
       </c>
     </row>
     <row r="72">
@@ -2591,10 +2591,10 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>270.7107180010117</v>
+        <v>270.7107180010121</v>
       </c>
       <c r="H72" t="n">
-        <v>78.57701652424258</v>
+        <v>78.57701652424282</v>
       </c>
     </row>
     <row r="73">
@@ -2621,10 +2621,10 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>205.220968683687</v>
+        <v>205.2209686836872</v>
       </c>
       <c r="H73" t="n">
-        <v>79.22395199582347</v>
+        <v>79.22395199582358</v>
       </c>
     </row>
     <row r="74">
@@ -2681,10 +2681,10 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>87.73435018202873</v>
+        <v>87.73435018202854</v>
       </c>
       <c r="H75" t="n">
-        <v>78.50322514284595</v>
+        <v>78.50322514284584</v>
       </c>
     </row>
     <row r="76">
@@ -2711,10 +2711,10 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>237.5837370173925</v>
+        <v>237.5837370173929</v>
       </c>
       <c r="H76" t="n">
-        <v>76.94681022954822</v>
+        <v>76.94681022954845</v>
       </c>
     </row>
     <row r="77">
@@ -2771,10 +2771,10 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>22.71045976173086</v>
+        <v>22.71045976173066</v>
       </c>
       <c r="H78" t="n">
-        <v>165.7110382998453</v>
+        <v>165.7110382998452</v>
       </c>
     </row>
     <row r="79">
@@ -2801,10 +2801,10 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>218.098344728763</v>
+        <v>218.0983447287627</v>
       </c>
       <c r="H79" t="n">
-        <v>165.9731055214002</v>
+        <v>165.9731055214</v>
       </c>
     </row>
     <row r="80">
@@ -2861,10 +2861,10 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>34.03447955198013</v>
+        <v>34.03447955198032</v>
       </c>
       <c r="H81" t="n">
-        <v>144.3920970001955</v>
+        <v>144.3920970001956</v>
       </c>
     </row>
     <row r="82">
@@ -2891,10 +2891,10 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.426648570526477</v>
+        <v>1.426648570526282</v>
       </c>
       <c r="H82" t="n">
-        <v>109.6628440613067</v>
+        <v>109.6628440613066</v>
       </c>
     </row>
     <row r="83">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.436099356997024</v>
+        <v>1.436099356996829</v>
       </c>
       <c r="H83" t="n">
         <v>148.8474125060425</v>
@@ -2951,7 +2951,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>99.947562784455</v>
+        <v>99.9475627844552</v>
       </c>
       <c r="H84" t="n">
         <v>144.1493281931555</v>
@@ -2981,7 +2981,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>78.76482437073996</v>
+        <v>78.76482437074034</v>
       </c>
       <c r="H85" t="n">
         <v>165.6059960743908</v>
@@ -3041,10 +3041,10 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>55.31678479429704</v>
+        <v>55.31678479429685</v>
       </c>
       <c r="H87" t="n">
-        <v>127.8039702599607</v>
+        <v>127.8039702599606</v>
       </c>
     </row>
     <row r="88">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>165.8344768481126</v>
+        <v>165.8344768481124</v>
       </c>
       <c r="H88" t="n">
         <v>115.753529373033</v>
@@ -3101,7 +3101,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>86.37681899144131</v>
+        <v>86.37681899144151</v>
       </c>
       <c r="H89" t="n">
         <v>108.7745460683577</v>
@@ -3131,10 +3131,10 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>-23.28243807413772</v>
+        <v>-23.28243807413791</v>
       </c>
       <c r="H90" t="n">
-        <v>124.4427052698454</v>
+        <v>124.4427052698453</v>
       </c>
     </row>
     <row r="91">
@@ -3161,10 +3161,10 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>109.9873456288091</v>
+        <v>109.9873456288095</v>
       </c>
       <c r="H91" t="n">
-        <v>127.4400902988253</v>
+        <v>127.4400902988254</v>
       </c>
     </row>
     <row r="92">
@@ -3191,10 +3191,10 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>199.7986502876905</v>
+        <v>199.7986502876909</v>
       </c>
       <c r="H92" t="n">
-        <v>105.5767452834565</v>
+        <v>105.5767452834566</v>
       </c>
     </row>
     <row r="93">
@@ -3221,10 +3221,10 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>147.9989050477283</v>
+        <v>147.9989050477285</v>
       </c>
       <c r="H93" t="n">
-        <v>116.0342148894784</v>
+        <v>116.0342148894785</v>
       </c>
     </row>
     <row r="94">
@@ -3251,10 +3251,10 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>114.1788586294738</v>
+        <v>114.1788586294735</v>
       </c>
       <c r="H94" t="n">
-        <v>84.14236901399816</v>
+        <v>84.14236901399799</v>
       </c>
     </row>
     <row r="95">
@@ -3281,10 +3281,10 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>91.36390736990371</v>
+        <v>91.36390736990411</v>
       </c>
       <c r="H95" t="n">
-        <v>81.70763967613249</v>
+        <v>81.7076396761327</v>
       </c>
     </row>
     <row r="96">
@@ -3341,10 +3341,10 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>200.683726946304</v>
+        <v>200.6837269463038</v>
       </c>
       <c r="H97" t="n">
-        <v>96.71556960645961</v>
+        <v>96.71556960645952</v>
       </c>
     </row>
     <row r="98">
@@ -3371,10 +3371,10 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>141.160371437589</v>
+        <v>141.1603714375888</v>
       </c>
       <c r="H98" t="n">
-        <v>92.81848000301551</v>
+        <v>92.81848000301541</v>
       </c>
     </row>
     <row r="99">
@@ -3401,10 +3401,10 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>124.2090472675656</v>
+        <v>124.209047267566</v>
       </c>
       <c r="H99" t="n">
-        <v>89.98908485189739</v>
+        <v>89.98908485189759</v>
       </c>
     </row>
     <row r="100">
@@ -3461,10 +3461,10 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>121.2818184103005</v>
+        <v>121.2818184103007</v>
       </c>
       <c r="H101" t="n">
-        <v>85.40930576710463</v>
+        <v>85.40930576710473</v>
       </c>
     </row>
   </sheetData>
